--- a/excel_helper.xlsx
+++ b/excel_helper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>int</t>
   </si>
@@ -24,58 +24,31 @@
     <t>String</t>
   </si>
   <si>
-    <t>match_id</t>
-  </si>
-  <si>
-    <t>match_static_id</t>
-  </si>
-  <si>
-    <t>match_comp_id</t>
-  </si>
-  <si>
-    <t>match_date</t>
-  </si>
-  <si>
-    <t>match_formatted_date</t>
-  </si>
-  <si>
-    <t>match_status</t>
-  </si>
-  <si>
-    <t>match_timer</t>
-  </si>
-  <si>
-    <t>match_time</t>
-  </si>
-  <si>
-    <t>match_commentary_available</t>
-  </si>
-  <si>
-    <t>match_localteam_id</t>
-  </si>
-  <si>
-    <t>match_localteam_name</t>
-  </si>
-  <si>
-    <t>match_localteam_score</t>
-  </si>
-  <si>
-    <t>match_visitorteam_id</t>
-  </si>
-  <si>
-    <t>match_visitorteam_name</t>
-  </si>
-  <si>
-    <t>match_visitorteam_score</t>
-  </si>
-  <si>
-    <t>match_ht_score</t>
-  </si>
-  <si>
-    <t>match_ft_score</t>
-  </si>
-  <si>
-    <t>match_et_score</t>
+    <t>private</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>event_match_id</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>event_minute</t>
+  </si>
+  <si>
+    <t>event_team</t>
+  </si>
+  <si>
+    <t>event_player</t>
+  </si>
+  <si>
+    <t>event_player_id</t>
+  </si>
+  <si>
+    <t>event_result</t>
   </si>
 </sst>
 </file>
@@ -435,315 +408,271 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L18"/>
+      <selection activeCell="L1" sqref="L1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="str">
         <f>C1&amp;" "&amp;IF(B1="int", "int", IF(B1="String", "varchar(50)", ""))&amp;","</f>
-        <v>match_id int,</v>
+        <v>event_id int,</v>
       </c>
       <c r="L1" t="str">
         <f>C1&amp;","</f>
-        <v>match_id,</v>
+        <v>event_id,</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G18" si="0">C2&amp;" "&amp;IF(B2="int", "int", IF(B2="String", "varchar(50)", ""))&amp;","</f>
-        <v>match_static_id int,</v>
+        <v>event_match_id int,</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L18" si="1">C2&amp;","</f>
-        <v>match_static_id,</v>
+        <v>event_match_id,</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>event_type varchar(50),</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>event_type,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>match_comp_id int,</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>match_comp_id,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>match_date varchar(50),</v>
+        <v>event_minute int,</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>match_date,</v>
+        <v>event_minute,</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>match_formatted_date varchar(50),</v>
+        <v>event_team varchar(50),</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>match_formatted_date,</v>
+        <v>event_team,</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>match_status varchar(50),</v>
+        <v>event_player varchar(50),</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>match_status,</v>
+        <v>event_player,</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>match_timer varchar(50),</v>
+        <v>event_player_id int,</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>match_timer,</v>
+        <v>event_player_id,</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>match_time varchar(50),</v>
+        <v>event_result varchar(50),</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>match_time,</v>
+        <v>event_result,</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>match_commentary_available varchar(50),</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>match_commentary_available,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>match_localteam_id int,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>match_localteam_id,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>match_localteam_name varchar(50),</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>match_localteam_name,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>match_localteam_score int,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>match_localteam_score,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>match_visitorteam_id int,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>match_visitorteam_id,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>match_visitorteam_name varchar(50),</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>match_visitorteam_name,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>match_visitorteam_score int,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>match_visitorteam_score,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>match_ht_score varchar(50),</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>match_ht_score,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>match_ft_score varchar(50),</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>match_ft_score,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>match_et_score varchar(50),</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>match_et_score,</v>
+        <v>,</v>
       </c>
     </row>
   </sheetData>
